--- a/output/xlsx/RF003 - Visualizar Permissoes do Usuario--ART-.xlsx
+++ b/output/xlsx/RF003 - Visualizar Permissoes do Usuario--ART-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>1.0</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -95,13 +95,13 @@
     <t>Usuario do Sistema clica no seu nome, apresentado no canto superior direito</t>
   </si>
   <si>
-    <t>SYSTEM exibe a tela com a tabela das permissoes concedidas ao seu usuario</t>
+    <t>SYSTEM exibe a tela com a tabela das Permissoes concedidas ao seu usuario</t>
   </si>
   <si>
     <t xml:space="preserve">Postcondition: </t>
   </si>
   <si>
-    <t>Usuario visualiza a tabela das permissoes concedidas ao seu usuario</t>
+    <t>Usuario visualiza a tabela das Permissoes concedidas ao seu usuario</t>
   </si>
 </sst>
 </file>
